--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5D9408-1FC7-4353-9134-65086FD1D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C28D24-9C8D-4580-9DFE-3B89998F7ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="260">
   <si>
     <t>Day</t>
   </si>
@@ -787,6 +787,24 @@
   </si>
   <si>
     <t>1463. Cherry Pickup II</t>
+  </si>
+  <si>
+    <t>2108. Find First Palindromic String in the Array</t>
+  </si>
+  <si>
+    <t>Day67</t>
+  </si>
+  <si>
+    <t>this is victory, I have started making good approaches but today I code 80% of myself, learn about two-pointers</t>
+  </si>
+  <si>
+    <t>2149. Rearrange Array Elements by Sign</t>
+  </si>
+  <si>
+    <t>Day68</t>
+  </si>
+  <si>
+    <t>explored two pointer and solved it by brute force because it feels easy</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2806,6 +2824,52 @@
       </c>
       <c r="G69" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>109</v>
+      </c>
+      <c r="G70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>258</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2873,8 +2937,10 @@
     <hyperlink ref="D67" r:id="rId61" display="https://leetcode.com/problems/palindromic-substrings/" xr:uid="{65CCFC3C-6E2C-4F4A-AFA5-E1C6E7F2F922}"/>
     <hyperlink ref="D69" r:id="rId62" display="https://leetcode.com/problems/majority-element/" xr:uid="{48B89AFD-BD1B-41D3-990E-F041BEFBE90F}"/>
     <hyperlink ref="D68" r:id="rId63" display="https://leetcode.com/problems/cherry-pickup-ii/" xr:uid="{1432E986-3F05-4D8F-B5B8-9160353DF6FF}"/>
+    <hyperlink ref="D70" r:id="rId64" display="https://leetcode.com/problems/find-first-palindromic-string-in-the-array/" xr:uid="{4F61B5CA-1D69-435D-8A2C-E661045589B4}"/>
+    <hyperlink ref="D71" r:id="rId65" display="https://leetcode.com/problems/rearrange-array-elements-by-sign/" xr:uid="{1E171C98-EA1F-4F81-AD4D-D2A9BF4136A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId64"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C28D24-9C8D-4580-9DFE-3B89998F7ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799B4C61-76CD-41C1-96BA-A95FE3904A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="263">
   <si>
     <t>Day</t>
   </si>
@@ -805,6 +805,15 @@
   </si>
   <si>
     <t>explored two pointer and solved it by brute force because it feels easy</t>
+  </si>
+  <si>
+    <t>2971. Find Polygon With the Largest Perimeter</t>
+  </si>
+  <si>
+    <t>Day69</t>
+  </si>
+  <si>
+    <t>explored sort reduce methods but overall intution was good but during implementayion I need to take help</t>
   </si>
 </sst>
 </file>
@@ -1224,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="E63" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2870,6 +2879,29 @@
       </c>
       <c r="G71" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>261</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2939,8 +2971,9 @@
     <hyperlink ref="D68" r:id="rId63" display="https://leetcode.com/problems/cherry-pickup-ii/" xr:uid="{1432E986-3F05-4D8F-B5B8-9160353DF6FF}"/>
     <hyperlink ref="D70" r:id="rId64" display="https://leetcode.com/problems/find-first-palindromic-string-in-the-array/" xr:uid="{4F61B5CA-1D69-435D-8A2C-E661045589B4}"/>
     <hyperlink ref="D71" r:id="rId65" display="https://leetcode.com/problems/rearrange-array-elements-by-sign/" xr:uid="{1E171C98-EA1F-4F81-AD4D-D2A9BF4136A7}"/>
+    <hyperlink ref="D72" r:id="rId66" display="https://leetcode.com/problems/find-polygon-with-the-largest-perimeter/" xr:uid="{455DDAE6-6880-477C-B87D-5CEBD8629962}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId66"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799B4C61-76CD-41C1-96BA-A95FE3904A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999E9A0C-E9D4-4669-A7A5-8D09AAAB0928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="266">
   <si>
     <t>Day</t>
   </si>
@@ -814,6 +814,15 @@
   </si>
   <si>
     <t>explored sort reduce methods but overall intution was good but during implementayion I need to take help</t>
+  </si>
+  <si>
+    <t>1481. Least Number of Unique Integers after K Removals</t>
+  </si>
+  <si>
+    <t>get to learn about foreach loop and set and get methods in Map and key, values in Object</t>
+  </si>
+  <si>
+    <t>Day70</t>
   </si>
 </sst>
 </file>
@@ -1233,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E63" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2902,6 +2911,29 @@
       </c>
       <c r="G72" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>265</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2972,8 +3004,9 @@
     <hyperlink ref="D70" r:id="rId64" display="https://leetcode.com/problems/find-first-palindromic-string-in-the-array/" xr:uid="{4F61B5CA-1D69-435D-8A2C-E661045589B4}"/>
     <hyperlink ref="D71" r:id="rId65" display="https://leetcode.com/problems/rearrange-array-elements-by-sign/" xr:uid="{1E171C98-EA1F-4F81-AD4D-D2A9BF4136A7}"/>
     <hyperlink ref="D72" r:id="rId66" display="https://leetcode.com/problems/find-polygon-with-the-largest-perimeter/" xr:uid="{455DDAE6-6880-477C-B87D-5CEBD8629962}"/>
+    <hyperlink ref="D73" r:id="rId67" display="https://leetcode.com/problems/least-number-of-unique-integers-after-k-removals/" xr:uid="{2A41CA2A-4E22-45FA-A791-C8D6EEDE6DD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
+  <pageSetup orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999E9A0C-E9D4-4669-A7A5-8D09AAAB0928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADFB1AC-3B05-4D26-9D05-070BF7CF113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="269">
   <si>
     <t>Day</t>
   </si>
@@ -823,6 +823,15 @@
   </si>
   <si>
     <t>Day70</t>
+  </si>
+  <si>
+    <t>1642. Furthest Building You Can Reach</t>
+  </si>
+  <si>
+    <t>Day73</t>
+  </si>
+  <si>
+    <t>just go through basic concepts of priority queue</t>
   </si>
 </sst>
 </file>
@@ -1242,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E62" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2934,6 +2943,29 @@
       </c>
       <c r="G73" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>267</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>89</v>
+      </c>
+      <c r="G74" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3005,8 +3037,9 @@
     <hyperlink ref="D71" r:id="rId65" display="https://leetcode.com/problems/rearrange-array-elements-by-sign/" xr:uid="{1E171C98-EA1F-4F81-AD4D-D2A9BF4136A7}"/>
     <hyperlink ref="D72" r:id="rId66" display="https://leetcode.com/problems/find-polygon-with-the-largest-perimeter/" xr:uid="{455DDAE6-6880-477C-B87D-5CEBD8629962}"/>
     <hyperlink ref="D73" r:id="rId67" display="https://leetcode.com/problems/least-number-of-unique-integers-after-k-removals/" xr:uid="{2A41CA2A-4E22-45FA-A791-C8D6EEDE6DD4}"/>
+    <hyperlink ref="D74" r:id="rId68" display="https://leetcode.com/problems/furthest-building-you-can-reach/" xr:uid="{048B3799-6CAE-4E0A-9971-7AC12FA5533B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId68"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADFB1AC-3B05-4D26-9D05-070BF7CF113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C0C06-C495-41A1-A693-A98AC34A3A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="278">
   <si>
     <t>Day</t>
   </si>
@@ -828,10 +828,37 @@
     <t>1642. Furthest Building You Can Reach</t>
   </si>
   <si>
+    <t>just go through basic concepts of priority queue</t>
+  </si>
+  <si>
+    <t>2402. Meeting Rooms III</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Day71</t>
+  </si>
+  <si>
+    <t>Day72</t>
+  </si>
+  <si>
+    <t>get to learn about approach understand solution by waching tutorial and editoral and impleted it by dry running</t>
+  </si>
+  <si>
+    <t>231. Power of Two</t>
+  </si>
+  <si>
     <t>Day73</t>
   </si>
   <si>
-    <t>just go through basic concepts of priority queue</t>
+    <t>Bitwise Operator</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>solved and then find time limit exceeded but then go through another approach of logical &amp; operator.</t>
   </si>
 </sst>
 </file>
@@ -1251,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E62" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2947,7 +2974,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -2965,7 +2992,53 @@
         <v>89</v>
       </c>
       <c r="G74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>268</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>275</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>276</v>
+      </c>
+      <c r="G76" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3038,8 +3111,10 @@
     <hyperlink ref="D72" r:id="rId66" display="https://leetcode.com/problems/find-polygon-with-the-largest-perimeter/" xr:uid="{455DDAE6-6880-477C-B87D-5CEBD8629962}"/>
     <hyperlink ref="D73" r:id="rId67" display="https://leetcode.com/problems/least-number-of-unique-integers-after-k-removals/" xr:uid="{2A41CA2A-4E22-45FA-A791-C8D6EEDE6DD4}"/>
     <hyperlink ref="D74" r:id="rId68" display="https://leetcode.com/problems/furthest-building-you-can-reach/" xr:uid="{048B3799-6CAE-4E0A-9971-7AC12FA5533B}"/>
+    <hyperlink ref="D75" r:id="rId69" display="https://leetcode.com/problems/meeting-rooms-iii/" xr:uid="{F40DE5D3-E7DE-43A4-B5B2-1CC254D4E83E}"/>
+    <hyperlink ref="D76" r:id="rId70" display="https://leetcode.com/problems/power-of-two/" xr:uid="{165A796C-F540-4A74-9E17-03B813B4460E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId71"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C0C06-C495-41A1-A693-A98AC34A3A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029A98A2-FE78-4326-BAEE-6F34B264B8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="285">
   <si>
     <t>Day</t>
   </si>
@@ -859,6 +859,27 @@
   </si>
   <si>
     <t>solved and then find time limit exceeded but then go through another approach of logical &amp; operator.</t>
+  </si>
+  <si>
+    <t>268. Missing Number</t>
+  </si>
+  <si>
+    <t>25MIN</t>
+  </si>
+  <si>
+    <t>Get some confidence that atleast I can make approach for easy questions and slight code also.</t>
+  </si>
+  <si>
+    <t>Day74</t>
+  </si>
+  <si>
+    <t>Day75</t>
+  </si>
+  <si>
+    <t>201. Bitwise AND of Numbers Range</t>
+  </si>
+  <si>
+    <t>explored bitwise operators and loops apply on array and shift and unshift operators</t>
   </si>
 </sst>
 </file>
@@ -1278,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3039,6 +3060,52 @@
       </c>
       <c r="G76" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>279</v>
+      </c>
+      <c r="G77" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>282</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>275</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3113,8 +3180,10 @@
     <hyperlink ref="D74" r:id="rId68" display="https://leetcode.com/problems/furthest-building-you-can-reach/" xr:uid="{048B3799-6CAE-4E0A-9971-7AC12FA5533B}"/>
     <hyperlink ref="D75" r:id="rId69" display="https://leetcode.com/problems/meeting-rooms-iii/" xr:uid="{F40DE5D3-E7DE-43A4-B5B2-1CC254D4E83E}"/>
     <hyperlink ref="D76" r:id="rId70" display="https://leetcode.com/problems/power-of-two/" xr:uid="{165A796C-F540-4A74-9E17-03B813B4460E}"/>
+    <hyperlink ref="D77" r:id="rId71" display="https://leetcode.com/problems/missing-number/" xr:uid="{211F2526-0E3A-4292-97F8-E60BA832C5E8}"/>
+    <hyperlink ref="D78" r:id="rId72" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/" xr:uid="{67869F1E-45FB-4423-881E-913A413101A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId71"/>
+  <pageSetup orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029A98A2-FE78-4326-BAEE-6F34B264B8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351035DE-EC79-4420-A175-5BBA713F74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
+    <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="288">
   <si>
     <t>Day</t>
   </si>
@@ -880,6 +880,15 @@
   </si>
   <si>
     <t>explored bitwise operators and loops apply on array and shift and unshift operators</t>
+  </si>
+  <si>
+    <t>997. Find the Town Judge</t>
+  </si>
+  <si>
+    <t>explored loops and understand solution</t>
+  </si>
+  <si>
+    <t>Day76</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3106,6 +3115,29 @@
       </c>
       <c r="G78" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>220</v>
+      </c>
+      <c r="G79" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3182,8 +3214,9 @@
     <hyperlink ref="D76" r:id="rId70" display="https://leetcode.com/problems/power-of-two/" xr:uid="{165A796C-F540-4A74-9E17-03B813B4460E}"/>
     <hyperlink ref="D77" r:id="rId71" display="https://leetcode.com/problems/missing-number/" xr:uid="{211F2526-0E3A-4292-97F8-E60BA832C5E8}"/>
     <hyperlink ref="D78" r:id="rId72" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/" xr:uid="{67869F1E-45FB-4423-881E-913A413101A6}"/>
+    <hyperlink ref="D79" r:id="rId73" display="https://leetcode.com/problems/find-the-town-judge/" xr:uid="{FF497933-BBA9-4BA4-895E-2CA54197B084}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId73"/>
+  <pageSetup orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351035DE-EC79-4420-A175-5BBA713F74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7717CBA-9349-46F6-872A-2014DB864987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="291">
   <si>
     <t>Day</t>
   </si>
@@ -889,6 +889,15 @@
   </si>
   <si>
     <t>Day76</t>
+  </si>
+  <si>
+    <t>Day77</t>
+  </si>
+  <si>
+    <t>787. Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>this medium is really hard to digest, I will come back to it after I get good grab in dsa rest than it understand dijikstra and solution approach but hard to digest and code</t>
   </si>
 </sst>
 </file>
@@ -1308,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3138,6 +3147,29 @@
       </c>
       <c r="G79" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3215,8 +3247,9 @@
     <hyperlink ref="D77" r:id="rId71" display="https://leetcode.com/problems/missing-number/" xr:uid="{211F2526-0E3A-4292-97F8-E60BA832C5E8}"/>
     <hyperlink ref="D78" r:id="rId72" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/" xr:uid="{67869F1E-45FB-4423-881E-913A413101A6}"/>
     <hyperlink ref="D79" r:id="rId73" display="https://leetcode.com/problems/find-the-town-judge/" xr:uid="{FF497933-BBA9-4BA4-895E-2CA54197B084}"/>
+    <hyperlink ref="D80" r:id="rId74" display="https://leetcode.com/problems/cheapest-flights-within-k-stops/" xr:uid="{1F379A85-AF87-4236-9622-C1366989558D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId74"/>
+  <pageSetup orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7717CBA-9349-46F6-872A-2014DB864987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EF6360-E251-4E38-8193-E72BFB4F4204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="298">
   <si>
     <t>Day</t>
   </si>
@@ -898,6 +898,27 @@
   </si>
   <si>
     <t>this medium is really hard to digest, I will come back to it after I get good grab in dsa rest than it understand dijikstra and solution approach but hard to digest and code</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>Day79</t>
+  </si>
+  <si>
+    <t>Day78</t>
+  </si>
+  <si>
+    <t>30Min</t>
+  </si>
+  <si>
+    <t>understand binary tree and explored trees</t>
+  </si>
+  <si>
+    <t>2709. Greatest Common Divisor Traversal</t>
+  </si>
+  <si>
+    <t>Union Find</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3170,6 +3191,52 @@
       </c>
       <c r="G80" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>293</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F81" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>292</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>294</v>
+      </c>
+      <c r="G82" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3248,8 +3315,10 @@
     <hyperlink ref="D78" r:id="rId72" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/" xr:uid="{67869F1E-45FB-4423-881E-913A413101A6}"/>
     <hyperlink ref="D79" r:id="rId73" display="https://leetcode.com/problems/find-the-town-judge/" xr:uid="{FF497933-BBA9-4BA4-895E-2CA54197B084}"/>
     <hyperlink ref="D80" r:id="rId74" display="https://leetcode.com/problems/cheapest-flights-within-k-stops/" xr:uid="{1F379A85-AF87-4236-9622-C1366989558D}"/>
+    <hyperlink ref="D82" r:id="rId75" display="https://leetcode.com/problems/same-tree/" xr:uid="{9DB8D7D4-23D3-4B35-8B4E-F58618E15919}"/>
+    <hyperlink ref="D81" r:id="rId76" display="https://leetcode.com/problems/greatest-common-divisor-traversal/" xr:uid="{7BCC6DA1-4143-48F8-B581-BFE5C9DACFE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId75"/>
+  <pageSetup orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EF6360-E251-4E38-8193-E72BFB4F4204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7C2265A-7284-46A7-9F85-B5E98C8BA58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="301">
   <si>
     <t>Day</t>
   </si>
@@ -919,6 +919,15 @@
   </si>
   <si>
     <t>Union Find</t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Day80</t>
+  </si>
+  <si>
+    <t>get to learn more about recurrsion and DFS</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3237,6 +3246,29 @@
       </c>
       <c r="G82" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>299</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>294</v>
+      </c>
+      <c r="G83" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3317,8 +3349,9 @@
     <hyperlink ref="D80" r:id="rId74" display="https://leetcode.com/problems/cheapest-flights-within-k-stops/" xr:uid="{1F379A85-AF87-4236-9622-C1366989558D}"/>
     <hyperlink ref="D82" r:id="rId75" display="https://leetcode.com/problems/same-tree/" xr:uid="{9DB8D7D4-23D3-4B35-8B4E-F58618E15919}"/>
     <hyperlink ref="D81" r:id="rId76" display="https://leetcode.com/problems/greatest-common-divisor-traversal/" xr:uid="{7BCC6DA1-4143-48F8-B581-BFE5C9DACFE3}"/>
+    <hyperlink ref="D83" r:id="rId77" display="https://leetcode.com/problems/diameter-of-binary-tree/" xr:uid="{7AB63F5F-0FD9-4991-8E27-5CA518F68A44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId77"/>
+  <pageSetup orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7C2265A-7284-46A7-9F85-B5E98C8BA58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{998E1EA6-C8E4-4892-BAE0-E6244D03433D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="305">
   <si>
     <t>Day</t>
   </si>
@@ -928,6 +928,18 @@
   </si>
   <si>
     <t>get to learn more about recurrsion and DFS</t>
+  </si>
+  <si>
+    <t>513. Find Bottom Left Tree Value</t>
+  </si>
+  <si>
+    <t>38Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explored Binary tree and understand solution </t>
+  </si>
+  <si>
+    <t>Day81</t>
   </si>
 </sst>
 </file>
@@ -1347,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3269,6 +3281,29 @@
       </c>
       <c r="G83" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>304</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
+        <v>302</v>
+      </c>
+      <c r="G84" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3350,8 +3385,9 @@
     <hyperlink ref="D82" r:id="rId75" display="https://leetcode.com/problems/same-tree/" xr:uid="{9DB8D7D4-23D3-4B35-8B4E-F58618E15919}"/>
     <hyperlink ref="D81" r:id="rId76" display="https://leetcode.com/problems/greatest-common-divisor-traversal/" xr:uid="{7BCC6DA1-4143-48F8-B581-BFE5C9DACFE3}"/>
     <hyperlink ref="D83" r:id="rId77" display="https://leetcode.com/problems/diameter-of-binary-tree/" xr:uid="{7AB63F5F-0FD9-4991-8E27-5CA518F68A44}"/>
+    <hyperlink ref="D84" r:id="rId78" display="https://leetcode.com/problems/find-bottom-left-tree-value/" xr:uid="{4AE7A955-FB77-4992-A15C-0DC176C54B2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId78"/>
+  <pageSetup orientation="portrait" r:id="rId79"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{998E1EA6-C8E4-4892-BAE0-E6244D03433D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937C87B2-7A25-4422-A593-C10D1A265B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="308">
   <si>
     <t>Day</t>
   </si>
@@ -940,6 +940,15 @@
   </si>
   <si>
     <t>Day81</t>
+  </si>
+  <si>
+    <t>1609. Even Odd Tree</t>
+  </si>
+  <si>
+    <t>Day82</t>
+  </si>
+  <si>
+    <t>10min</t>
   </si>
 </sst>
 </file>
@@ -1359,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3304,6 +3313,29 @@
       </c>
       <c r="G84" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" t="s">
+        <v>307</v>
+      </c>
+      <c r="G85" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3386,8 +3418,9 @@
     <hyperlink ref="D81" r:id="rId76" display="https://leetcode.com/problems/greatest-common-divisor-traversal/" xr:uid="{7BCC6DA1-4143-48F8-B581-BFE5C9DACFE3}"/>
     <hyperlink ref="D83" r:id="rId77" display="https://leetcode.com/problems/diameter-of-binary-tree/" xr:uid="{7AB63F5F-0FD9-4991-8E27-5CA518F68A44}"/>
     <hyperlink ref="D84" r:id="rId78" display="https://leetcode.com/problems/find-bottom-left-tree-value/" xr:uid="{4AE7A955-FB77-4992-A15C-0DC176C54B2D}"/>
+    <hyperlink ref="D85" r:id="rId79" display="https://leetcode.com/problems/even-odd-tree/" xr:uid="{A88EF2AA-096C-4D28-901E-1DC93768B905}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId79"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937C87B2-7A25-4422-A593-C10D1A265B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CB3F1D-E96E-44CE-BE6F-D5C2775ABDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="311">
   <si>
     <t>Day</t>
   </si>
@@ -949,6 +949,15 @@
   </si>
   <si>
     <t>10min</t>
+  </si>
+  <si>
+    <t>2864. Maximum Odd Binary Number</t>
+  </si>
+  <si>
+    <t>Day83</t>
+  </si>
+  <si>
+    <t>understand solution and started with fundamentals of DSA again</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3336,6 +3345,29 @@
       </c>
       <c r="G85" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>309</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>220</v>
+      </c>
+      <c r="G86" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3419,8 +3451,9 @@
     <hyperlink ref="D83" r:id="rId77" display="https://leetcode.com/problems/diameter-of-binary-tree/" xr:uid="{7AB63F5F-0FD9-4991-8E27-5CA518F68A44}"/>
     <hyperlink ref="D84" r:id="rId78" display="https://leetcode.com/problems/find-bottom-left-tree-value/" xr:uid="{4AE7A955-FB77-4992-A15C-0DC176C54B2D}"/>
     <hyperlink ref="D85" r:id="rId79" display="https://leetcode.com/problems/even-odd-tree/" xr:uid="{A88EF2AA-096C-4D28-901E-1DC93768B905}"/>
+    <hyperlink ref="D86" r:id="rId80" display="https://leetcode.com/problems/maximum-odd-binary-number/" xr:uid="{A036406D-E39B-41C2-94B4-1E4CBA596542}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CB3F1D-E96E-44CE-BE6F-D5C2775ABDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024520F1-EEAD-4D7C-921B-637614F0BB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="314">
   <si>
     <t>Day</t>
   </si>
@@ -958,6 +958,15 @@
   </si>
   <si>
     <t>understand solution and started with fundamentals of DSA again</t>
+  </si>
+  <si>
+    <t>977. Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>Day84</t>
+  </si>
+  <si>
+    <t>feeling good because solve it and find time complexity too.</t>
   </si>
 </sst>
 </file>
@@ -1377,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3368,6 +3377,29 @@
       </c>
       <c r="G86" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>312</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>203</v>
+      </c>
+      <c r="G87" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3452,8 +3484,9 @@
     <hyperlink ref="D84" r:id="rId78" display="https://leetcode.com/problems/find-bottom-left-tree-value/" xr:uid="{4AE7A955-FB77-4992-A15C-0DC176C54B2D}"/>
     <hyperlink ref="D85" r:id="rId79" display="https://leetcode.com/problems/even-odd-tree/" xr:uid="{A88EF2AA-096C-4D28-901E-1DC93768B905}"/>
     <hyperlink ref="D86" r:id="rId80" display="https://leetcode.com/problems/maximum-odd-binary-number/" xr:uid="{A036406D-E39B-41C2-94B4-1E4CBA596542}"/>
+    <hyperlink ref="D87" r:id="rId81" display="https://leetcode.com/problems/squares-of-a-sorted-array/" xr:uid="{8DFBA56B-F4A6-474F-BADF-5796CCEC155A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId81"/>
+  <pageSetup orientation="portrait" r:id="rId82"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024520F1-EEAD-4D7C-921B-637614F0BB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6571FAFB-5BFA-4479-921F-4E1B6F8D400F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="320">
   <si>
     <t>Day</t>
   </si>
@@ -967,6 +967,24 @@
   </si>
   <si>
     <t>feeling good because solve it and find time complexity too.</t>
+  </si>
+  <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Day85</t>
+  </si>
+  <si>
+    <t>understood and copy pasted</t>
+  </si>
+  <si>
+    <t>948. Bag of Tokens</t>
+  </si>
+  <si>
+    <t>matched my intution with the actual solution and used sorting and loops</t>
+  </si>
+  <si>
+    <t>DAY86</t>
   </si>
 </sst>
 </file>
@@ -1386,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3400,6 +3418,52 @@
       </c>
       <c r="G87" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>315</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>294</v>
+      </c>
+      <c r="G88" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>319</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>114</v>
+      </c>
+      <c r="G89" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3485,8 +3549,10 @@
     <hyperlink ref="D85" r:id="rId79" display="https://leetcode.com/problems/even-odd-tree/" xr:uid="{A88EF2AA-096C-4D28-901E-1DC93768B905}"/>
     <hyperlink ref="D86" r:id="rId80" display="https://leetcode.com/problems/maximum-odd-binary-number/" xr:uid="{A036406D-E39B-41C2-94B4-1E4CBA596542}"/>
     <hyperlink ref="D87" r:id="rId81" display="https://leetcode.com/problems/squares-of-a-sorted-array/" xr:uid="{8DFBA56B-F4A6-474F-BADF-5796CCEC155A}"/>
+    <hyperlink ref="D88" r:id="rId82" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{9F20600C-5883-4341-9E1D-0BE19772FD1B}"/>
+    <hyperlink ref="D89" r:id="rId83" display="https://leetcode.com/problems/bag-of-tokens/" xr:uid="{99BA3BED-7F70-41BE-90B6-59EF13DF7063}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId82"/>
+  <pageSetup orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6571FAFB-5BFA-4479-921F-4E1B6F8D400F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F20AAF-7FE0-44C9-AB2D-90B136B82981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
+    <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="324">
   <si>
     <t>Day</t>
   </si>
@@ -985,6 +985,18 @@
   </si>
   <si>
     <t>DAY86</t>
+  </si>
+  <si>
+    <t>1750. Minimum Length of String After Deleting Similar Ends</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
+  </si>
+  <si>
+    <t>Day87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make intution good approach but fail in writing code </t>
   </si>
 </sst>
 </file>
@@ -1404,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="F77" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3464,6 +3476,29 @@
       </c>
       <c r="G89" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>322</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>321</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" t="s">
+        <v>294</v>
+      </c>
+      <c r="G90" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3551,8 +3586,9 @@
     <hyperlink ref="D87" r:id="rId81" display="https://leetcode.com/problems/squares-of-a-sorted-array/" xr:uid="{8DFBA56B-F4A6-474F-BADF-5796CCEC155A}"/>
     <hyperlink ref="D88" r:id="rId82" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{9F20600C-5883-4341-9E1D-0BE19772FD1B}"/>
     <hyperlink ref="D89" r:id="rId83" display="https://leetcode.com/problems/bag-of-tokens/" xr:uid="{99BA3BED-7F70-41BE-90B6-59EF13DF7063}"/>
+    <hyperlink ref="D90" r:id="rId84" display="https://leetcode.com/problems/minimum-length-of-string-after-deleting-similar-ends/" xr:uid="{A02848BA-6111-40D9-B141-0F8845D5DE64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId85"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F20AAF-7FE0-44C9-AB2D-90B136B82981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A40186-214C-4125-BABA-45CCEF1CE41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="328">
   <si>
     <t>Day</t>
   </si>
@@ -997,6 +997,18 @@
   </si>
   <si>
     <t xml:space="preserve">make intution good approach but fail in writing code </t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Day88</t>
+  </si>
+  <si>
+    <t>35min</t>
+  </si>
+  <si>
+    <t>my approach totally got collasped but understood the solution and did not spent enough time on it.</t>
   </si>
 </sst>
 </file>
@@ -1416,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F77" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3499,6 +3511,29 @@
       </c>
       <c r="G90" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>325</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>326</v>
+      </c>
+      <c r="G91" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3587,8 +3622,9 @@
     <hyperlink ref="D88" r:id="rId82" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{9F20600C-5883-4341-9E1D-0BE19772FD1B}"/>
     <hyperlink ref="D89" r:id="rId83" display="https://leetcode.com/problems/bag-of-tokens/" xr:uid="{99BA3BED-7F70-41BE-90B6-59EF13DF7063}"/>
     <hyperlink ref="D90" r:id="rId84" display="https://leetcode.com/problems/minimum-length-of-string-after-deleting-similar-ends/" xr:uid="{A02848BA-6111-40D9-B141-0F8845D5DE64}"/>
+    <hyperlink ref="D91" r:id="rId85" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{94C69317-23A4-44F7-A239-00173687BCCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId85"/>
+  <pageSetup orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A40186-214C-4125-BABA-45CCEF1CE41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B46CA3-53BB-462F-BD7D-A6C9EFB0ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="331">
   <si>
     <t>Day</t>
   </si>
@@ -1009,6 +1009,15 @@
   </si>
   <si>
     <t>my approach totally got collasped but understood the solution and did not spent enough time on it.</t>
+  </si>
+  <si>
+    <t>876. Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>my approach seems to be treating the linked list as an array. Linked lists and arrays are different data structures</t>
+  </si>
+  <si>
+    <t>Day89</t>
   </si>
 </sst>
 </file>
@@ -1428,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3521,7 +3530,7 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>324</v>
@@ -3534,6 +3543,29 @@
       </c>
       <c r="G91" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>330</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>220</v>
+      </c>
+      <c r="G92" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3623,8 +3655,9 @@
     <hyperlink ref="D89" r:id="rId83" display="https://leetcode.com/problems/bag-of-tokens/" xr:uid="{99BA3BED-7F70-41BE-90B6-59EF13DF7063}"/>
     <hyperlink ref="D90" r:id="rId84" display="https://leetcode.com/problems/minimum-length-of-string-after-deleting-similar-ends/" xr:uid="{A02848BA-6111-40D9-B141-0F8845D5DE64}"/>
     <hyperlink ref="D91" r:id="rId85" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{94C69317-23A4-44F7-A239-00173687BCCF}"/>
+    <hyperlink ref="D92" r:id="rId86" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{FB98D945-5896-4DC9-84AE-F7D420F28D2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId86"/>
+  <pageSetup orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B46CA3-53BB-462F-BD7D-A6C9EFB0ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A6DAD6-FBD4-461A-91DC-C8755681C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="334">
   <si>
     <t>Day</t>
   </si>
@@ -1018,6 +1018,15 @@
   </si>
   <si>
     <t>Day89</t>
+  </si>
+  <si>
+    <t>3005. Count Elements With Maximum Frequency</t>
+  </si>
+  <si>
+    <t>Day90</t>
+  </si>
+  <si>
+    <t>initated good approach but fail in executing,little bit depressed then copy pasted solution</t>
   </si>
 </sst>
 </file>
@@ -1437,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3566,6 +3575,29 @@
       </c>
       <c r="G92" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>332</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>170</v>
+      </c>
+      <c r="G93" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3656,8 +3688,9 @@
     <hyperlink ref="D90" r:id="rId84" display="https://leetcode.com/problems/minimum-length-of-string-after-deleting-similar-ends/" xr:uid="{A02848BA-6111-40D9-B141-0F8845D5DE64}"/>
     <hyperlink ref="D91" r:id="rId85" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{94C69317-23A4-44F7-A239-00173687BCCF}"/>
     <hyperlink ref="D92" r:id="rId86" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{FB98D945-5896-4DC9-84AE-F7D420F28D2A}"/>
+    <hyperlink ref="D93" r:id="rId87" display="https://leetcode.com/problems/count-elements-with-maximum-frequency/" xr:uid="{591AC8CA-CFE1-4392-B0F8-492FA4CA408F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId87"/>
+  <pageSetup orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A6DAD6-FBD4-461A-91DC-C8755681C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C8FFEF-84DF-4F65-A7D1-1A62816C357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="337">
   <si>
     <t>Day</t>
   </si>
@@ -1027,6 +1027,15 @@
   </si>
   <si>
     <t>initated good approach but fail in executing,little bit depressed then copy pasted solution</t>
+  </si>
+  <si>
+    <t>2540. Minimum Common Value</t>
+  </si>
+  <si>
+    <t>atleast can understand th e approach but fail in implementation, but have atleast littlebit confidence to write pseudocode</t>
+  </si>
+  <si>
+    <t>Day91</t>
   </si>
 </sst>
 </file>
@@ -1446,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3598,6 +3607,29 @@
       </c>
       <c r="G93" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>336</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>109</v>
+      </c>
+      <c r="G94" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3689,8 +3721,9 @@
     <hyperlink ref="D91" r:id="rId85" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{94C69317-23A4-44F7-A239-00173687BCCF}"/>
     <hyperlink ref="D92" r:id="rId86" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{FB98D945-5896-4DC9-84AE-F7D420F28D2A}"/>
     <hyperlink ref="D93" r:id="rId87" display="https://leetcode.com/problems/count-elements-with-maximum-frequency/" xr:uid="{591AC8CA-CFE1-4392-B0F8-492FA4CA408F}"/>
+    <hyperlink ref="D94" r:id="rId88" display="https://leetcode.com/problems/minimum-common-value/" xr:uid="{28E71612-628C-4303-A072-F4E0C1981BC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId88"/>
+  <pageSetup orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C8FFEF-84DF-4F65-A7D1-1A62816C357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769D06F0-0368-45D4-BADD-00979B5C176D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="340">
   <si>
     <t>Day</t>
   </si>
@@ -1036,6 +1036,15 @@
   </si>
   <si>
     <t>Day91</t>
+  </si>
+  <si>
+    <t>349. Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>Day92</t>
+  </si>
+  <si>
+    <t>approach is littlebit good but lacks in some logic</t>
   </si>
 </sst>
 </file>
@@ -1455,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3630,6 +3639,29 @@
       </c>
       <c r="G94" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>338</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>230</v>
+      </c>
+      <c r="G95" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3722,8 +3754,9 @@
     <hyperlink ref="D92" r:id="rId86" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{FB98D945-5896-4DC9-84AE-F7D420F28D2A}"/>
     <hyperlink ref="D93" r:id="rId87" display="https://leetcode.com/problems/count-elements-with-maximum-frequency/" xr:uid="{591AC8CA-CFE1-4392-B0F8-492FA4CA408F}"/>
     <hyperlink ref="D94" r:id="rId88" display="https://leetcode.com/problems/minimum-common-value/" xr:uid="{28E71612-628C-4303-A072-F4E0C1981BC3}"/>
+    <hyperlink ref="D95" r:id="rId89" display="https://leetcode.com/problems/intersection-of-two-arrays/" xr:uid="{D2A643B3-F31A-4970-8E2C-365412F5C0AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId89"/>
+  <pageSetup orientation="portrait" r:id="rId90"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769D06F0-0368-45D4-BADD-00979B5C176D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978386ED-B016-4634-A46E-EC5102FB6785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="344">
   <si>
     <t>Day</t>
   </si>
@@ -1045,6 +1045,18 @@
   </si>
   <si>
     <t>approach is littlebit good but lacks in some logic</t>
+  </si>
+  <si>
+    <t>791. Custom Sort String</t>
+  </si>
+  <si>
+    <t>Day93</t>
+  </si>
+  <si>
+    <t>25Min</t>
+  </si>
+  <si>
+    <t>applied an approach good to some extent but failed then copy pasted solution and try to understand implementation</t>
   </si>
 </sst>
 </file>
@@ -1464,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3662,6 +3674,29 @@
       </c>
       <c r="G95" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>341</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" t="s">
+        <v>342</v>
+      </c>
+      <c r="G96" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3755,8 +3790,9 @@
     <hyperlink ref="D93" r:id="rId87" display="https://leetcode.com/problems/count-elements-with-maximum-frequency/" xr:uid="{591AC8CA-CFE1-4392-B0F8-492FA4CA408F}"/>
     <hyperlink ref="D94" r:id="rId88" display="https://leetcode.com/problems/minimum-common-value/" xr:uid="{28E71612-628C-4303-A072-F4E0C1981BC3}"/>
     <hyperlink ref="D95" r:id="rId89" display="https://leetcode.com/problems/intersection-of-two-arrays/" xr:uid="{D2A643B3-F31A-4970-8E2C-365412F5C0AC}"/>
+    <hyperlink ref="D96" r:id="rId90" display="https://leetcode.com/problems/custom-sort-string/" xr:uid="{4599CC88-72FB-465F-93E2-B9D7019CFFEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId90"/>
+  <pageSetup orientation="portrait" r:id="rId91"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978386ED-B016-4634-A46E-EC5102FB6785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2517A18-D49B-4C16-887D-896FBA029FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="347">
   <si>
     <t>Day</t>
   </si>
@@ -1057,6 +1057,15 @@
   </si>
   <si>
     <t>applied an approach good to some extent but failed then copy pasted solution and try to understand implementation</t>
+  </si>
+  <si>
+    <t>1171. Remove Zero Sum Consecutive Nodes from Linked List</t>
+  </si>
+  <si>
+    <t>feeling bad still now I cant do My best, so many days but  and understood problem and btw copy pasted solution</t>
+  </si>
+  <si>
+    <t>Day94</t>
   </si>
 </sst>
 </file>
@@ -1476,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3684,7 +3693,7 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>340</v>
@@ -3697,6 +3706,29 @@
       </c>
       <c r="G96" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>346</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" t="s">
+        <v>114</v>
+      </c>
+      <c r="G97" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3791,8 +3823,9 @@
     <hyperlink ref="D94" r:id="rId88" display="https://leetcode.com/problems/minimum-common-value/" xr:uid="{28E71612-628C-4303-A072-F4E0C1981BC3}"/>
     <hyperlink ref="D95" r:id="rId89" display="https://leetcode.com/problems/intersection-of-two-arrays/" xr:uid="{D2A643B3-F31A-4970-8E2C-365412F5C0AC}"/>
     <hyperlink ref="D96" r:id="rId90" display="https://leetcode.com/problems/custom-sort-string/" xr:uid="{4599CC88-72FB-465F-93E2-B9D7019CFFEA}"/>
+    <hyperlink ref="D97" r:id="rId91" display="https://leetcode.com/problems/remove-zero-sum-consecutive-nodes-from-linked-list/" xr:uid="{13A54448-9588-4716-90E1-45F2223F955E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId91"/>
+  <pageSetup orientation="portrait" r:id="rId92"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2517A18-D49B-4C16-887D-896FBA029FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D295D60-88B5-499C-A83A-97D43D8B0C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="351">
   <si>
     <t>Day</t>
   </si>
@@ -1066,6 +1066,18 @@
   </si>
   <si>
     <t>Day94</t>
+  </si>
+  <si>
+    <t>2485. Find the Pivot Integer</t>
+  </si>
+  <si>
+    <t>Day95</t>
+  </si>
+  <si>
+    <t>50min</t>
+  </si>
+  <si>
+    <t>Didn’t get what is actually question was but I had a good approach but failed.</t>
   </si>
 </sst>
 </file>
@@ -1485,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="F77" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3729,6 +3741,29 @@
       </c>
       <c r="G97" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>348</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>349</v>
+      </c>
+      <c r="G98" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3824,8 +3859,9 @@
     <hyperlink ref="D95" r:id="rId89" display="https://leetcode.com/problems/intersection-of-two-arrays/" xr:uid="{D2A643B3-F31A-4970-8E2C-365412F5C0AC}"/>
     <hyperlink ref="D96" r:id="rId90" display="https://leetcode.com/problems/custom-sort-string/" xr:uid="{4599CC88-72FB-465F-93E2-B9D7019CFFEA}"/>
     <hyperlink ref="D97" r:id="rId91" display="https://leetcode.com/problems/remove-zero-sum-consecutive-nodes-from-linked-list/" xr:uid="{13A54448-9588-4716-90E1-45F2223F955E}"/>
+    <hyperlink ref="D98" r:id="rId92" display="https://leetcode.com/problems/find-the-pivot-integer/" xr:uid="{BDDF31B4-3DCE-440E-97EB-076E577FBC33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId92"/>
+  <pageSetup orientation="portrait" r:id="rId93"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D295D60-88B5-499C-A83A-97D43D8B0C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD5A2B-18AF-4A25-9D80-6F1ED3E8B32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="359">
   <si>
     <t>Day</t>
   </si>
@@ -1078,6 +1078,30 @@
   </si>
   <si>
     <t>Didn’t get what is actually question was but I had a good approach but failed.</t>
+  </si>
+  <si>
+    <t>7. Reverse Integer</t>
+  </si>
+  <si>
+    <t>9. Palindrome Number</t>
+  </si>
+  <si>
+    <t>Day96</t>
+  </si>
+  <si>
+    <t>DAY97</t>
+  </si>
+  <si>
+    <t>10MIN</t>
+  </si>
+  <si>
+    <t>15MIN</t>
+  </si>
+  <si>
+    <t>explored the string vs number reverse method</t>
+  </si>
+  <si>
+    <t>similar to reverse just learn more about variables</t>
   </si>
 </sst>
 </file>
@@ -1497,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F77" zoomScale="74" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3764,6 +3788,52 @@
       </c>
       <c r="G98" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>353</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>355</v>
+      </c>
+      <c r="G99" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>354</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>356</v>
+      </c>
+      <c r="G100" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3860,8 +3930,10 @@
     <hyperlink ref="D96" r:id="rId90" display="https://leetcode.com/problems/custom-sort-string/" xr:uid="{4599CC88-72FB-465F-93E2-B9D7019CFFEA}"/>
     <hyperlink ref="D97" r:id="rId91" display="https://leetcode.com/problems/remove-zero-sum-consecutive-nodes-from-linked-list/" xr:uid="{13A54448-9588-4716-90E1-45F2223F955E}"/>
     <hyperlink ref="D98" r:id="rId92" display="https://leetcode.com/problems/find-the-pivot-integer/" xr:uid="{BDDF31B4-3DCE-440E-97EB-076E577FBC33}"/>
+    <hyperlink ref="D99" r:id="rId93" display="https://leetcode.com/problems/reverse-integer/" xr:uid="{29E68E85-20A7-464C-BB87-DB3B404F53CC}"/>
+    <hyperlink ref="D100" r:id="rId94" display="https://leetcode.com/problems/palindrome-number/" xr:uid="{975CD438-AFA0-43A5-B93B-A91D5A5B9FDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId93"/>
+  <pageSetup orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD5A2B-18AF-4A25-9D80-6F1ED3E8B32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E498D-178A-46FF-A85B-59D5B5E17A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="362">
   <si>
     <t>Day</t>
   </si>
@@ -1102,6 +1102,15 @@
   </si>
   <si>
     <t>similar to reverse just learn more about variables</t>
+  </si>
+  <si>
+    <t>525. Contiguous Array</t>
+  </si>
+  <si>
+    <t>Day98</t>
+  </si>
+  <si>
+    <t>think about the approach and end at copy pasting</t>
   </si>
 </sst>
 </file>
@@ -1521,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="G78" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3834,6 +3843,29 @@
       </c>
       <c r="G100" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>360</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" t="s">
+        <v>276</v>
+      </c>
+      <c r="G101" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3932,8 +3964,9 @@
     <hyperlink ref="D98" r:id="rId92" display="https://leetcode.com/problems/find-the-pivot-integer/" xr:uid="{BDDF31B4-3DCE-440E-97EB-076E577FBC33}"/>
     <hyperlink ref="D99" r:id="rId93" display="https://leetcode.com/problems/reverse-integer/" xr:uid="{29E68E85-20A7-464C-BB87-DB3B404F53CC}"/>
     <hyperlink ref="D100" r:id="rId94" display="https://leetcode.com/problems/palindrome-number/" xr:uid="{975CD438-AFA0-43A5-B93B-A91D5A5B9FDE}"/>
+    <hyperlink ref="D101" r:id="rId95" display="https://leetcode.com/problems/contiguous-array/" xr:uid="{F34C347F-B0E6-4835-8689-61FC9E7DD0C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId95"/>
+  <pageSetup orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E498D-178A-46FF-A85B-59D5B5E17A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017FD9F3-E5C9-439D-B863-B3F2D9714D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="365">
   <si>
     <t>Day</t>
   </si>
@@ -1111,6 +1111,15 @@
   </si>
   <si>
     <t>think about the approach and end at copy pasting</t>
+  </si>
+  <si>
+    <t>Day99</t>
+  </si>
+  <si>
+    <t>452. Minimum Number of Arrows to Burst Balloons</t>
+  </si>
+  <si>
+    <t>understood solution and implemented</t>
   </si>
 </sst>
 </file>
@@ -1530,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G78" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="B81" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3866,6 +3875,29 @@
       </c>
       <c r="G101" t="s">
         <v>361</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>362</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3965,8 +3997,9 @@
     <hyperlink ref="D99" r:id="rId93" display="https://leetcode.com/problems/reverse-integer/" xr:uid="{29E68E85-20A7-464C-BB87-DB3B404F53CC}"/>
     <hyperlink ref="D100" r:id="rId94" display="https://leetcode.com/problems/palindrome-number/" xr:uid="{975CD438-AFA0-43A5-B93B-A91D5A5B9FDE}"/>
     <hyperlink ref="D101" r:id="rId95" display="https://leetcode.com/problems/contiguous-array/" xr:uid="{F34C347F-B0E6-4835-8689-61FC9E7DD0C2}"/>
+    <hyperlink ref="D102" r:id="rId96" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons/" xr:uid="{5C6733DE-93D9-4783-8AF2-E7BE6BEDB543}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId96"/>
+  <pageSetup orientation="portrait" r:id="rId97"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017FD9F3-E5C9-439D-B863-B3F2D9714D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48009ADD-BCB4-449A-A418-AFA3DC313F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="367">
   <si>
     <t>Day</t>
   </si>
@@ -1120,6 +1120,12 @@
   </si>
   <si>
     <t>understood solution and implemented</t>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+  </si>
+  <si>
+    <t>Day100</t>
   </si>
 </sst>
 </file>
@@ -1539,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B81" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D105" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3898,6 +3904,17 @@
       </c>
       <c r="G102" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>366</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3998,8 +4015,9 @@
     <hyperlink ref="D100" r:id="rId94" display="https://leetcode.com/problems/palindrome-number/" xr:uid="{975CD438-AFA0-43A5-B93B-A91D5A5B9FDE}"/>
     <hyperlink ref="D101" r:id="rId95" display="https://leetcode.com/problems/contiguous-array/" xr:uid="{F34C347F-B0E6-4835-8689-61FC9E7DD0C2}"/>
     <hyperlink ref="D102" r:id="rId96" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons/" xr:uid="{5C6733DE-93D9-4783-8AF2-E7BE6BEDB543}"/>
+    <hyperlink ref="D103" r:id="rId97" display="https://leetcode.com/problems/task-scheduler/" xr:uid="{6F123A01-0536-4820-8F85-F322ED00C03C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId97"/>
+  <pageSetup orientation="portrait" r:id="rId98"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48009ADD-BCB4-449A-A418-AFA3DC313F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA64219-5383-4207-BEF8-2937EC2BD521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="369">
   <si>
     <t>Day</t>
   </si>
@@ -1126,6 +1126,12 @@
   </si>
   <si>
     <t>Day100</t>
+  </si>
+  <si>
+    <t>1669. Merge In Between Linked Lists</t>
+  </si>
+  <si>
+    <t>Day101</t>
   </si>
 </sst>
 </file>
@@ -1545,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D105" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3913,8 +3919,43 @@
       <c r="B103">
         <v>102</v>
       </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
       <c r="D103" s="5" t="s">
         <v>365</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" t="s">
+        <v>89</v>
+      </c>
+      <c r="G103" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>368</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" t="s">
+        <v>89</v>
+      </c>
+      <c r="G104" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4016,8 +4057,9 @@
     <hyperlink ref="D101" r:id="rId95" display="https://leetcode.com/problems/contiguous-array/" xr:uid="{F34C347F-B0E6-4835-8689-61FC9E7DD0C2}"/>
     <hyperlink ref="D102" r:id="rId96" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons/" xr:uid="{5C6733DE-93D9-4783-8AF2-E7BE6BEDB543}"/>
     <hyperlink ref="D103" r:id="rId97" display="https://leetcode.com/problems/task-scheduler/" xr:uid="{6F123A01-0536-4820-8F85-F322ED00C03C}"/>
+    <hyperlink ref="D104" r:id="rId98" display="https://leetcode.com/problems/merge-in-between-linked-lists/" xr:uid="{C2794545-EA56-449B-9D38-D6502B6596D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId98"/>
+  <pageSetup orientation="portrait" r:id="rId99"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA64219-5383-4207-BEF8-2937EC2BD521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D477C-E073-4971-BF45-2EF9ED8AC370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="372">
   <si>
     <t>Day</t>
   </si>
@@ -1132,6 +1132,15 @@
   </si>
   <si>
     <t>Day101</t>
+  </si>
+  <si>
+    <t>206. Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Day102</t>
+  </si>
+  <si>
+    <t>implemented by learning and not by copy pasting….</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="G90" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3956,6 +3965,29 @@
       </c>
       <c r="G104" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>370</v>
+      </c>
+      <c r="B105">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>220</v>
+      </c>
+      <c r="G105" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4058,8 +4090,9 @@
     <hyperlink ref="D102" r:id="rId96" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons/" xr:uid="{5C6733DE-93D9-4783-8AF2-E7BE6BEDB543}"/>
     <hyperlink ref="D103" r:id="rId97" display="https://leetcode.com/problems/task-scheduler/" xr:uid="{6F123A01-0536-4820-8F85-F322ED00C03C}"/>
     <hyperlink ref="D104" r:id="rId98" display="https://leetcode.com/problems/merge-in-between-linked-lists/" xr:uid="{C2794545-EA56-449B-9D38-D6502B6596D7}"/>
+    <hyperlink ref="D105" r:id="rId99" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{77958695-A8F6-48DC-AACB-12B7E3E9CC8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId99"/>
+  <pageSetup orientation="portrait" r:id="rId100"/>
 </worksheet>
 </file>
--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D477C-E073-4971-BF45-2EF9ED8AC370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A89608-91C9-4EFF-9C41-841982CDB0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G90" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Track/Leetcode.xlsx
+++ b/Track/Leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A89608-91C9-4EFF-9C41-841982CDB0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF3039B-5E47-475B-A23B-0D882E8DBD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4428" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{A42494DF-8190-4561-AF1E-C8F97CA7F350}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="373">
   <si>
     <t>Day</t>
   </si>
@@ -1141,6 +1141,9 @@
   </si>
   <si>
     <t>implemented by learning and not by copy pasting….</t>
+  </si>
+  <si>
+    <t>713. Subarray Product Less Than K</t>
   </si>
 </sst>
 </file>
@@ -1560,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F0AF1-E70C-4DF3-A2BA-08FFFBE9E501}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3988,6 +3991,11 @@
       </c>
       <c r="G105" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D106" s="5" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -4091,8 +4099,9 @@
     <hyperlink ref="D103" r:id="rId97" display="https://leetcode.com/problems/task-scheduler/" xr:uid="{6F123A01-0536-4820-8F85-F322ED00C03C}"/>
     <hyperlink ref="D104" r:id="rId98" display="https://leetcode.com/problems/merge-in-between-linked-lists/" xr:uid="{C2794545-EA56-449B-9D38-D6502B6596D7}"/>
     <hyperlink ref="D105" r:id="rId99" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{77958695-A8F6-48DC-AACB-12B7E3E9CC8E}"/>
+    <hyperlink ref="D106" r:id="rId100" display="https://leetcode.com/problems/subarray-product-less-than-k/" xr:uid="{B0F15536-2C3C-4E8A-9D38-A2F7240CF60E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId100"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
 </worksheet>
 </file>